--- a/resource_comp.xlsx
+++ b/resource_comp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cm/JPL_Google_Drive/hbcu_data_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cm/JPL_Google_Drive/JPL HBCU Internship 2020/jpl_bioinfo_internship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4416EED1-6632-E647-96D2-A15D2D5EC873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07095515-D94B-0D4C-9ADD-603AC1C8317E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59180" yWindow="3180" windowWidth="28040" windowHeight="17440" xr2:uid="{51C08CE3-3478-A246-9592-8F9ED9FE553C}"/>
+    <workbookView xWindow="19380" yWindow="9260" windowWidth="28040" windowHeight="17440" xr2:uid="{51C08CE3-3478-A246-9592-8F9ED9FE553C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,35 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>mem</t>
-  </si>
-  <si>
-    <t>cpu</t>
-  </si>
-  <si>
-    <t>centrifuge</t>
-  </si>
-  <si>
-    <t>ganon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>CPU Time (hours)</t>
+  </si>
+  <si>
+    <t>% of CPU</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Centrifuge</t>
+  </si>
+  <si>
+    <t>Ganon</t>
+  </si>
+  <si>
+    <t>K2-Bracken</t>
+  </si>
+  <si>
+    <t>Max. Memory Usage (GB)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,10 +94,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -401,34 +422,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE65958D-F661-754E-B80E-8960A1EBF36E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6138</v>
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1.7050000000000001</v>
       </c>
       <c r="C2" s="2">
         <v>37.520000000000003</v>
@@ -436,14 +462,15 @@
       <c r="D2" s="2">
         <v>859</v>
       </c>
+      <c r="E2" s="5"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>13073</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.631388888888889</v>
       </c>
       <c r="C3" s="2">
         <v>105.05</v>
@@ -451,6 +478,25 @@
       <c r="D3" s="2">
         <v>1483</v>
       </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>22.744444444444444</v>
+      </c>
+      <c r="C4" s="2">
+        <v>49.82</v>
+      </c>
+      <c r="D4" s="2">
+        <v>133</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
